--- a/data/trans_bre/P3A$yo-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A$yo-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>20.85660325871113</v>
+        <v>20.8566032587111</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.2926590687377498</v>
+        <v>0.2926590687377494</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.97729951314292</v>
+        <v>16.49511784441821</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.2147357795212274</v>
+        <v>0.2246283901081836</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.72191984186846</v>
+        <v>25.69025791223611</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.3808936946680911</v>
+        <v>0.3815249782163734</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>24.69952047367512</v>
+        <v>24.69952047367513</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.3558451756748667</v>
+        <v>0.355845175674867</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>19.90177020794989</v>
+        <v>19.2429661583193</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2733092645694334</v>
+        <v>0.2601938068052939</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30.15073838985587</v>
+        <v>29.65149780579165</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4665433117201315</v>
+        <v>0.4558293778361123</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>26.15798016173281</v>
+        <v>26.1579801617328</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.4028994636953308</v>
+        <v>0.4028994636953306</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.59236902447051</v>
+        <v>18.59018477034728</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.2738285575200834</v>
+        <v>0.2758606743828996</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31.86185071815175</v>
+        <v>32.1319354347122</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.5213644911840145</v>
+        <v>0.5257847460544048</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>28.03167190812053</v>
+        <v>28.03167190812054</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.4198889959602271</v>
+        <v>0.4198889959602272</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>24.48176058744397</v>
+        <v>24.61124095320379</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3523458532346168</v>
+        <v>0.3528621110539272</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>31.14407686354632</v>
+        <v>31.16490754008944</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4879041178850846</v>
+        <v>0.486840133133409</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>31.4711748303519</v>
+        <v>31.47117483035192</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.5021030515072977</v>
+        <v>0.5021030515072982</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>27.17333509526131</v>
+        <v>27.06856889524404</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.4074829948663033</v>
+        <v>0.4045450363833631</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>36.33896075206355</v>
+        <v>36.37305752575388</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6245814798584669</v>
+        <v>0.6252749617514376</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>36.4328037397351</v>
+        <v>36.43280373973511</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.8181187367087814</v>
+        <v>0.8181187367087818</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.21807338169777</v>
+        <v>25.66078283403138</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4629588416632144</v>
+        <v>0.4711537460094417</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>46.25803471635246</v>
+        <v>47.46007637431107</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.296739945014157</v>
+        <v>1.389263197446243</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.40813185535658</v>
+        <v>23.21901644258124</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.3494362225074193</v>
+        <v>0.3471131940189952</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>27.40103342649603</v>
+        <v>27.35821028182163</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.4282320025490806</v>
+        <v>0.4288429206802111</v>
       </c>
     </row>
     <row r="25">
